--- a/biology/Médecine/Muscle_semi-tendineux/Muscle_semi-tendineux.xlsx
+++ b/biology/Médecine/Muscle_semi-tendineux/Muscle_semi-tendineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  muscle semi-tendineux (ou muscle demi-tendineux) est un muscle du membre inférieur situé dans la cuisse.
 Il fait partie des muscles ischio-jambiers et est contenu dans la loge fémorale postérieure.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-tendineux est un long muscle fusiforme superficiel situé à l'arrière de la cuisse.
 Il relie l'os coxal au tibia. Il est bi-articulaire : articulation coxale et articulation du genou.
@@ -545,7 +559,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-tendineux se fixe avec le tendon du chef long du muscle biceps fémoral sur la face postérieure de la tubérosité ischiatique.
 </t>
@@ -576,7 +592,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-tendineux descend sur la face postérieure de la cuisse en dedans du muscle biceps fémoral et en arrière du muscle semi-membraneux. Il devient tendineux dans son tiers inférieur et passe en arrière du condyle médial du fémur et passe sur le ligament collatéral médial de l'articulation du genou, dont il est séparé par une bourse synoviale.
 </t>
@@ -607,7 +625,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-tendineux s'insère sur la face antéro-interne de la partie supérieure du tibia, en dessous du muscle gracile et en arrière du muscle sartorius et contribuant à la patte d'oie
 </t>
@@ -638,7 +658,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-tendineux est innervé par le nerf tibial, branche du nerf ischiatique.
 </t>
@@ -669,7 +691,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-tendineux est vascularisé par les artères perforantes et l'artère glutéale inférieure.
 </t>
@@ -700,9 +724,11 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle semi-tendineux est [1]:
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle semi-tendineux est :
 fléchisseur de genou,
 rotateur médial du genou,
 extenseur de la hanche,
